--- a/data/miscellaneousMonitoring/2025VWC.xlsx
+++ b/data/miscellaneousMonitoring/2025VWC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/miscellaneousMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1CBED8-7702-0444-A6B6-0C1F9BACF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45443F57-A4B0-7D40-BECB-EC1E39BE6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="648">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1971,6 +1971,15 @@
   </si>
   <si>
     <t xml:space="preserve">doy193: 2024 and 2025 growth are dead but the rest is still alive </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
 </sst>
 </file>
@@ -1978,9 +1987,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1994,16 +2003,33 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2011,19 +2037,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -2089,8 +2133,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -2109,7 +2153,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -2172,22 +2216,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G617" totalsRowShown="0">
-  <autoFilter ref="A1:G617" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tree_ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bloc" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="treatment" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="genus" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="species" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Note" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H617" totalsRowShown="0">
+  <autoFilter ref="A1:H617" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tree_ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bloc" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="treatment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="genus" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="species" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Note" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="193"/>
+    <tableColumn id="7" xr3:uid="{9E2876A1-65A2-4642-BDED-49987BD44622}" name="194" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2471,22 +2510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:H617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="223" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G358" sqref="G358"/>
+    <sheetView tabSelected="1" zoomScale="223" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2508,8 +2547,11 @@
       <c r="G1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2528,8 +2570,9 @@
       <c r="G2">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2548,8 +2591,9 @@
       <c r="G3">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2568,8 +2612,9 @@
       <c r="G4">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2588,8 +2633,9 @@
       <c r="G5">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2608,8 +2654,9 @@
       <c r="G6">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2625,8 +2672,9 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2642,8 +2690,9 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2659,8 +2708,9 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2676,8 +2726,9 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2693,8 +2744,9 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2710,8 +2762,9 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2727,8 +2780,9 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2744,8 +2798,9 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2761,8 +2816,9 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2778,8 +2834,9 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2798,8 +2855,9 @@
       <c r="G17">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2818,8 +2876,9 @@
       <c r="G18">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2838,8 +2897,9 @@
       <c r="G19">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2858,8 +2918,9 @@
       <c r="G20">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2878,8 +2939,9 @@
       <c r="G21">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2895,8 +2957,9 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2912,8 +2975,9 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2929,8 +2993,9 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2946,8 +3011,9 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2963,8 +3029,9 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2980,8 +3047,9 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2997,8 +3065,9 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3014,8 +3083,9 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3031,8 +3101,9 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3048,8 +3119,9 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3068,8 +3140,9 @@
       <c r="G32">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3088,8 +3161,9 @@
       <c r="G33">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3182,9 @@
       <c r="G34">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3128,8 +3203,9 @@
       <c r="G35">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3148,8 +3224,9 @@
       <c r="G36">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3165,8 +3242,9 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3182,8 +3260,9 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3199,8 +3278,9 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3216,8 +3296,9 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3233,8 +3314,9 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3250,8 +3332,9 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3267,8 +3350,9 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3284,8 +3368,9 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3301,8 +3386,9 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3318,8 +3404,9 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3338,8 +3425,9 @@
       <c r="G47">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3358,8 +3446,9 @@
       <c r="G48">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3378,8 +3467,9 @@
       <c r="G49">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3398,8 +3488,9 @@
       <c r="G50">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3418,8 +3509,9 @@
       <c r="G51">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3435,8 +3527,9 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3452,8 +3545,9 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3469,8 +3563,9 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3486,8 +3581,9 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3503,8 +3599,9 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3520,8 +3617,9 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3537,8 +3635,9 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3554,8 +3653,9 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3571,8 +3671,9 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3588,8 +3689,9 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3608,8 +3710,9 @@
       <c r="G62">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3628,8 +3731,9 @@
       <c r="G63">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3648,8 +3752,9 @@
       <c r="G64">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3668,8 +3773,9 @@
       <c r="G65">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3688,8 +3794,9 @@
       <c r="G66">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3705,8 +3812,9 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3722,8 +3830,9 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -3739,8 +3848,9 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3756,8 +3866,9 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3773,8 +3884,9 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -3790,8 +3902,9 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -3807,8 +3920,9 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -3824,8 +3938,9 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -3841,8 +3956,9 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -3858,8 +3974,9 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -3878,8 +3995,9 @@
       <c r="G77">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3898,8 +4016,9 @@
       <c r="G78">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3918,8 +4037,9 @@
       <c r="G79">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -3938,8 +4058,9 @@
       <c r="G80">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -3958,8 +4079,9 @@
       <c r="G81">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -3975,8 +4097,9 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3992,8 +4115,9 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4009,8 +4133,9 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4026,8 +4151,9 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4043,8 +4169,9 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4060,8 +4187,9 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4077,8 +4205,9 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4094,8 +4223,9 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4111,8 +4241,9 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4128,8 +4259,9 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4148,8 +4280,9 @@
       <c r="G92">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4168,8 +4301,9 @@
       <c r="G93">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4188,8 +4322,9 @@
       <c r="G94">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4208,8 +4343,9 @@
       <c r="G95">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4228,8 +4364,9 @@
       <c r="G96">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4245,8 +4382,9 @@
       <c r="E97" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4262,8 +4400,9 @@
       <c r="E98" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4279,8 +4418,9 @@
       <c r="E99" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4296,8 +4436,9 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4313,8 +4454,9 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4330,8 +4472,9 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4347,8 +4490,9 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4364,8 +4508,9 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4381,8 +4526,9 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4398,8 +4544,9 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4418,8 +4565,9 @@
       <c r="G107">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4438,8 +4586,9 @@
       <c r="G108">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4458,8 +4607,9 @@
       <c r="G109">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -4478,8 +4628,9 @@
       <c r="G110">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -4498,8 +4649,9 @@
       <c r="G111">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -4515,8 +4667,9 @@
       <c r="E112" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -4532,8 +4685,9 @@
       <c r="E113" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -4549,8 +4703,9 @@
       <c r="E114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -4566,8 +4721,9 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -4583,8 +4739,9 @@
       <c r="E116" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -4600,8 +4757,9 @@
       <c r="E117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -4617,8 +4775,9 @@
       <c r="E118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -4634,8 +4793,9 @@
       <c r="E119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -4651,8 +4811,9 @@
       <c r="E120" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -4668,8 +4829,9 @@
       <c r="E121" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -4688,8 +4850,9 @@
       <c r="G122">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -4708,8 +4871,9 @@
       <c r="G123">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -4728,8 +4892,9 @@
       <c r="G124">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -4748,8 +4913,9 @@
       <c r="G125">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -4768,8 +4934,9 @@
       <c r="G126">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -4785,8 +4952,9 @@
       <c r="E127" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -4802,8 +4970,9 @@
       <c r="E128" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -4819,8 +4988,9 @@
       <c r="E129" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -4836,8 +5006,9 @@
       <c r="E130" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -4853,8 +5024,9 @@
       <c r="E131" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -4870,8 +5042,9 @@
       <c r="E132" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -4887,8 +5060,9 @@
       <c r="E133" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -4904,8 +5078,9 @@
       <c r="E134" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -4921,8 +5096,9 @@
       <c r="E135" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -4938,8 +5114,9 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -4958,8 +5135,9 @@
       <c r="G137">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -4978,8 +5156,9 @@
       <c r="G138">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -4998,8 +5177,9 @@
       <c r="G139">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -5018,8 +5198,9 @@
       <c r="G140">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -5038,8 +5219,9 @@
       <c r="G141">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -5055,8 +5237,9 @@
       <c r="E142" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -5072,8 +5255,9 @@
       <c r="E143" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -5089,8 +5273,9 @@
       <c r="E144" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -5106,8 +5291,9 @@
       <c r="E145" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -5123,8 +5309,9 @@
       <c r="E146" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -5140,8 +5327,9 @@
       <c r="E147" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -5157,8 +5345,9 @@
       <c r="E148" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -5174,8 +5363,9 @@
       <c r="E149" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -5191,8 +5381,9 @@
       <c r="E150" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -5208,8 +5399,9 @@
       <c r="E151" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -5228,8 +5420,9 @@
       <c r="G152">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -5248,8 +5441,9 @@
       <c r="G153">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -5268,8 +5462,9 @@
       <c r="G154">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -5288,8 +5483,9 @@
       <c r="G155">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -5308,8 +5504,9 @@
       <c r="G156">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -5325,8 +5522,9 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -5342,8 +5540,9 @@
       <c r="E158" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -5359,8 +5558,9 @@
       <c r="E159" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -5376,8 +5576,9 @@
       <c r="E160" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -5393,8 +5594,9 @@
       <c r="E161" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -5410,8 +5612,9 @@
       <c r="E162" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -5427,8 +5630,9 @@
       <c r="E163" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -5444,8 +5648,9 @@
       <c r="E164" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -5461,8 +5666,9 @@
       <c r="E165" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -5478,8 +5684,9 @@
       <c r="E166" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -5498,8 +5705,9 @@
       <c r="G167" s="2">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -5518,8 +5726,9 @@
       <c r="G168">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -5538,8 +5747,9 @@
       <c r="G169">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -5558,8 +5768,9 @@
       <c r="G170">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -5578,8 +5789,9 @@
       <c r="G171">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -5595,8 +5807,9 @@
       <c r="E172" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -5612,8 +5825,9 @@
       <c r="E173" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -5629,8 +5843,9 @@
       <c r="E174" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -5646,8 +5861,9 @@
       <c r="E175" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -5663,8 +5879,9 @@
       <c r="E176" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -5680,8 +5897,9 @@
       <c r="E177" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -5697,8 +5915,9 @@
       <c r="E178" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -5714,8 +5933,9 @@
       <c r="E179" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -5731,8 +5951,9 @@
       <c r="E180" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -5748,8 +5969,9 @@
       <c r="E181" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -5768,8 +5990,9 @@
       <c r="G182">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -5788,8 +6011,9 @@
       <c r="G183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -5808,8 +6032,9 @@
       <c r="G184">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -5831,8 +6056,9 @@
       <c r="G185">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -5851,8 +6077,9 @@
       <c r="G186">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -5868,8 +6095,9 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -5885,8 +6113,9 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -5902,8 +6131,9 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -5919,8 +6149,9 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -5936,8 +6167,9 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -5953,8 +6185,9 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -5970,8 +6203,9 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -5987,8 +6221,9 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -6004,8 +6239,9 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -6021,8 +6257,9 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -6041,8 +6278,9 @@
       <c r="G197">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -6061,8 +6299,9 @@
       <c r="G198">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -6081,8 +6320,9 @@
       <c r="G199">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -6101,8 +6341,9 @@
       <c r="G200">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -6121,8 +6362,9 @@
       <c r="G201">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -6138,8 +6380,9 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -6155,8 +6398,9 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -6172,8 +6416,9 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -6189,8 +6434,9 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -6206,8 +6452,9 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -6223,8 +6470,9 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -6240,8 +6488,9 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -6257,8 +6506,9 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -6274,8 +6524,9 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -6291,8 +6542,9 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -6311,8 +6563,9 @@
       <c r="G212">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -6331,8 +6584,9 @@
       <c r="G213">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -6351,8 +6605,9 @@
       <c r="G214">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -6371,8 +6626,9 @@
       <c r="G215">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -6391,8 +6647,9 @@
       <c r="G216">
         <v>14</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -6408,8 +6665,9 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -6425,8 +6683,9 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -6442,8 +6701,9 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -6459,8 +6719,9 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -6476,8 +6737,9 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -6493,8 +6755,9 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -6510,8 +6773,9 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -6527,8 +6791,9 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -6544,8 +6809,9 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -6561,8 +6827,9 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -6581,8 +6848,9 @@
       <c r="G227">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -6601,8 +6869,9 @@
       <c r="G228">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -6621,8 +6890,9 @@
       <c r="G229">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -6641,8 +6911,9 @@
       <c r="G230">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -6661,8 +6932,9 @@
       <c r="G231">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -6678,8 +6950,9 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -6695,8 +6968,9 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -6712,8 +6986,9 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -6729,8 +7004,9 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -6746,8 +7022,9 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -6763,8 +7040,9 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -6780,8 +7058,9 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -6797,8 +7076,9 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -6814,8 +7094,9 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -6831,8 +7112,9 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -6851,8 +7133,9 @@
       <c r="G242">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -6874,8 +7157,9 @@
       <c r="G243">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -6894,8 +7178,9 @@
       <c r="G244">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -6914,8 +7199,9 @@
       <c r="G245">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -6934,8 +7220,9 @@
       <c r="G246">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -6951,8 +7238,9 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -6968,8 +7256,9 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -6985,8 +7274,9 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -7002,8 +7292,9 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -7019,8 +7310,9 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -7036,8 +7328,9 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -7053,8 +7346,9 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7070,8 +7364,9 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -7087,8 +7382,9 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -7104,8 +7400,9 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -7124,8 +7421,9 @@
       <c r="G257">
         <v>15</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -7144,8 +7442,9 @@
       <c r="G258">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -7164,8 +7463,9 @@
       <c r="G259">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -7184,8 +7484,9 @@
       <c r="G260">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -7204,8 +7505,9 @@
       <c r="G261">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -7221,8 +7523,9 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -7238,8 +7541,9 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -7255,8 +7559,9 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -7272,8 +7577,9 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -7289,8 +7595,9 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -7306,8 +7613,9 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -7323,8 +7631,9 @@
       <c r="E268" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -7340,8 +7649,9 @@
       <c r="E269" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -7357,8 +7667,9 @@
       <c r="E270" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -7374,8 +7685,9 @@
       <c r="E271" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -7394,8 +7706,9 @@
       <c r="G272">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -7414,8 +7727,9 @@
       <c r="G273">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -7434,8 +7748,9 @@
       <c r="G274">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -7454,8 +7769,9 @@
       <c r="G275">
         <v>10</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -7474,8 +7790,9 @@
       <c r="G276">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -7491,8 +7808,9 @@
       <c r="E277" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -7508,8 +7826,9 @@
       <c r="E278" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -7525,8 +7844,9 @@
       <c r="E279" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -7542,8 +7862,9 @@
       <c r="E280" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -7559,8 +7880,9 @@
       <c r="E281" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -7576,8 +7898,9 @@
       <c r="E282" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -7593,8 +7916,9 @@
       <c r="E283" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -7610,8 +7934,9 @@
       <c r="E284" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -7627,8 +7952,9 @@
       <c r="E285" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -7647,8 +7973,9 @@
       <c r="G286">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -7667,8 +7994,9 @@
       <c r="G287">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -7687,8 +8015,9 @@
       <c r="G288">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -7707,8 +8036,9 @@
       <c r="G289">
         <v>10</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -7727,8 +8057,9 @@
       <c r="G290">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -7744,8 +8075,9 @@
       <c r="E291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -7761,8 +8093,9 @@
       <c r="E292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -7778,8 +8111,9 @@
       <c r="E293" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -7795,8 +8129,9 @@
       <c r="E294" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -7812,8 +8147,9 @@
       <c r="E295" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -7829,8 +8165,9 @@
       <c r="E296" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -7846,8 +8183,9 @@
       <c r="E297" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -7863,8 +8201,9 @@
       <c r="E298" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -7880,8 +8219,9 @@
       <c r="E299" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -7897,8 +8237,9 @@
       <c r="E300" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -7917,8 +8258,9 @@
       <c r="G301">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -7937,8 +8279,9 @@
       <c r="G302">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -7957,8 +8300,9 @@
       <c r="G303">
         <v>11</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -7977,8 +8321,9 @@
       <c r="G304">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -7997,8 +8342,9 @@
       <c r="G305">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -8014,8 +8360,9 @@
       <c r="E306" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H306" s="6"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -8031,8 +8378,9 @@
       <c r="E307" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -8048,8 +8396,9 @@
       <c r="E308" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -8065,8 +8414,9 @@
       <c r="E309" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -8082,8 +8432,9 @@
       <c r="E310" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -8099,8 +8450,9 @@
       <c r="E311" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -8116,8 +8468,9 @@
       <c r="E312" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -8133,8 +8486,9 @@
       <c r="E313" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -8150,8 +8504,9 @@
       <c r="E314" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -8167,8 +8522,9 @@
       <c r="E315" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -8187,8 +8543,9 @@
       <c r="G316">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -8207,8 +8564,9 @@
       <c r="G317">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -8227,8 +8585,9 @@
       <c r="G318">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -8247,8 +8606,9 @@
       <c r="G319">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -8267,8 +8627,9 @@
       <c r="G320">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -8284,8 +8645,9 @@
       <c r="E321" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -8301,8 +8663,9 @@
       <c r="E322" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -8318,8 +8681,9 @@
       <c r="E323" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -8335,8 +8699,9 @@
       <c r="E324" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -8352,8 +8717,9 @@
       <c r="E325" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -8369,8 +8735,9 @@
       <c r="E326" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -8386,8 +8753,9 @@
       <c r="E327" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -8403,8 +8771,9 @@
       <c r="E328" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -8423,8 +8792,9 @@
       <c r="G329">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -8443,8 +8813,9 @@
       <c r="G330">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -8463,8 +8834,9 @@
       <c r="G331">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -8483,8 +8855,9 @@
       <c r="G332">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -8503,8 +8876,9 @@
       <c r="G333">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -8520,8 +8894,9 @@
       <c r="E334" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -8537,8 +8912,9 @@
       <c r="E335" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -8554,8 +8930,9 @@
       <c r="E336" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -8571,8 +8948,9 @@
       <c r="E337" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H337" s="6"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -8588,8 +8966,9 @@
       <c r="E338" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H338" s="6"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -8605,8 +8984,9 @@
       <c r="E339" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H339" s="6"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -8622,8 +9002,9 @@
       <c r="E340" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H340" s="6"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -8639,8 +9020,9 @@
       <c r="E341" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H341" s="6"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -8656,8 +9038,9 @@
       <c r="E342" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H342" s="6"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -8673,8 +9056,9 @@
       <c r="E343" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -8693,8 +9077,9 @@
       <c r="G344">
         <v>9</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344" s="6"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -8713,8 +9098,9 @@
       <c r="G345">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H345" s="6"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -8733,8 +9119,9 @@
       <c r="G346">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -8753,8 +9140,9 @@
       <c r="G347">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H347" s="6"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -8773,8 +9161,9 @@
       <c r="G348">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H348" s="6"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -8790,8 +9179,9 @@
       <c r="E349" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H349" s="6"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -8807,8 +9197,9 @@
       <c r="E350" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H350" s="6"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -8824,8 +9215,9 @@
       <c r="E351" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H351" s="6"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -8841,8 +9233,9 @@
       <c r="E352" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -8858,8 +9251,9 @@
       <c r="E353" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H353" s="6"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -8875,8 +9269,9 @@
       <c r="E354" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H354" s="6"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -8892,8 +9287,9 @@
       <c r="E355" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H355" s="6"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -8909,8 +9305,9 @@
       <c r="E356" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H356" s="6"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -8926,8 +9323,9 @@
       <c r="E357" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H357" s="6"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -8943,11 +9341,12 @@
       <c r="E358" t="s">
         <v>378</v>
       </c>
-      <c r="G358">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G358" t="s">
+        <v>645</v>
+      </c>
+      <c r="H358" s="6"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -8966,8 +9365,9 @@
       <c r="G359">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H359" s="6"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -8986,8 +9386,9 @@
       <c r="G360">
         <v>16</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H360" s="6"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -9006,8 +9407,9 @@
       <c r="G361">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H361" s="6"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -9026,8 +9428,9 @@
       <c r="G362">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H362" s="6"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -9043,8 +9446,9 @@
       <c r="E363" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H363" s="6"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -9060,8 +9464,9 @@
       <c r="E364" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H364" s="6"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -9077,8 +9482,9 @@
       <c r="E365" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H365" s="6"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -9094,8 +9500,9 @@
       <c r="E366" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H366" s="6"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -9111,8 +9518,9 @@
       <c r="E367" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H367" s="6"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -9128,8 +9536,9 @@
       <c r="E368" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H368" s="6"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -9145,8 +9554,9 @@
       <c r="E369" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H369" s="6"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -9162,8 +9572,9 @@
       <c r="E370" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H370" s="6"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -9179,8 +9590,9 @@
       <c r="E371" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H371" s="6"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -9196,8 +9608,9 @@
       <c r="E372" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H372" s="6"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -9216,8 +9629,9 @@
       <c r="G373">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H373" s="6"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -9236,8 +9650,9 @@
       <c r="G374">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H374" s="6"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -9256,8 +9671,9 @@
       <c r="G375">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H375" s="6"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -9276,8 +9692,9 @@
       <c r="G376">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H376" s="6"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -9293,8 +9710,9 @@
       <c r="E377" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H377" s="6"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -9310,8 +9728,9 @@
       <c r="E378" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H378" s="6"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -9327,8 +9746,9 @@
       <c r="E379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H379" s="6"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -9344,8 +9764,9 @@
       <c r="E380" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H380" s="6"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -9361,8 +9782,9 @@
       <c r="E381" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H381" s="6"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -9378,8 +9800,9 @@
       <c r="E382" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -9395,8 +9818,9 @@
       <c r="E383" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H383" s="6"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -9412,8 +9836,9 @@
       <c r="E384" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -9429,8 +9854,9 @@
       <c r="E385" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -9449,8 +9875,9 @@
       <c r="G386">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -9469,8 +9896,9 @@
       <c r="G387">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H387" s="6"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -9489,8 +9917,9 @@
       <c r="G388">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -9509,8 +9938,9 @@
       <c r="G389">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H389" s="6"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -9529,8 +9959,9 @@
       <c r="G390">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -9546,8 +9977,9 @@
       <c r="E391" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H391" s="6"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -9563,8 +9995,9 @@
       <c r="E392" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H392" s="6"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -9580,8 +10013,9 @@
       <c r="E393" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H393" s="6"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -9597,8 +10031,9 @@
       <c r="E394" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H394" s="6"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -9614,8 +10049,9 @@
       <c r="E395" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H395" s="6"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -9631,8 +10067,9 @@
       <c r="E396" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H396" s="6"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -9648,8 +10085,9 @@
       <c r="E397" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H397" s="6"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -9665,8 +10103,9 @@
       <c r="E398" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H398" s="6"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -9682,8 +10121,9 @@
       <c r="E399" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H399" s="6"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -9702,8 +10142,9 @@
       <c r="G400">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H400" s="6"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -9722,8 +10163,9 @@
       <c r="G401">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H401" s="6"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -9742,8 +10184,9 @@
       <c r="G402">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H402" s="6"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -9762,8 +10205,9 @@
       <c r="G403">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H403" s="6"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -9782,8 +10226,9 @@
       <c r="G404" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H404" s="6"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -9799,8 +10244,9 @@
       <c r="E405" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H405" s="6"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -9816,8 +10262,9 @@
       <c r="E406" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H406" s="6"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -9833,8 +10280,9 @@
       <c r="E407" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H407" s="6"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -9850,8 +10298,9 @@
       <c r="E408" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H408" s="6"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -9867,8 +10316,9 @@
       <c r="E409" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H409" s="6"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -9884,8 +10334,9 @@
       <c r="E410" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H410" s="6"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -9901,8 +10352,9 @@
       <c r="E411" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H411" s="6"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -9921,8 +10373,9 @@
       <c r="G412">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H412" s="6"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -9941,8 +10394,9 @@
       <c r="G413">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H413" s="6"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -9961,8 +10415,9 @@
       <c r="G414">
         <v>19</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H414" s="6"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -9981,8 +10436,9 @@
       <c r="G415">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H415" s="6"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -9998,8 +10454,9 @@
       <c r="E416" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H416" s="6"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -10015,8 +10472,9 @@
       <c r="E417" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H417" s="6"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -10032,8 +10490,9 @@
       <c r="E418" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H418" s="6"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -10049,8 +10508,9 @@
       <c r="E419" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H419" s="6"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -10066,8 +10526,9 @@
       <c r="E420" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H420" s="6"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -10083,8 +10544,9 @@
       <c r="E421" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H421" s="6"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -10100,8 +10562,9 @@
       <c r="E422" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H422" s="6"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -10117,8 +10580,9 @@
       <c r="E423" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H423" s="6"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -10134,8 +10598,9 @@
       <c r="E424" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H424" s="6"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -10154,8 +10619,9 @@
       <c r="G425" s="1">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H425" s="6"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -10174,8 +10640,9 @@
       <c r="G426">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H426" s="6"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -10194,8 +10661,9 @@
       <c r="G427">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H427" s="6"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -10214,8 +10682,9 @@
       <c r="G428">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H428" s="6"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -10234,8 +10703,9 @@
       <c r="G429">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H429" s="6"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -10251,8 +10721,9 @@
       <c r="E430" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H430" s="6"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -10268,8 +10739,9 @@
       <c r="E431" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H431" s="6"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -10285,8 +10757,9 @@
       <c r="E432" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H432" s="6"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -10302,8 +10775,9 @@
       <c r="E433" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H433" s="6"/>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -10319,8 +10793,9 @@
       <c r="E434" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H434" s="6"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -10336,8 +10811,9 @@
       <c r="E435" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H435" s="6"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -10353,8 +10829,9 @@
       <c r="E436" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H436" s="6"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -10370,8 +10847,9 @@
       <c r="E437" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H437" s="6"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -10390,8 +10868,9 @@
       <c r="G438">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H438" s="6"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -10410,8 +10889,9 @@
       <c r="G439">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H439" s="6"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -10430,8 +10910,9 @@
       <c r="G440">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H440" s="6"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -10450,8 +10931,9 @@
       <c r="G441">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H441" s="6"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -10470,8 +10952,9 @@
       <c r="G442">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H442" s="6"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -10487,8 +10970,9 @@
       <c r="E443" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H443" s="6"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -10504,8 +10988,9 @@
       <c r="E444" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H444" s="6"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -10521,8 +11006,9 @@
       <c r="E445" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H445" s="6"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -10538,8 +11024,9 @@
       <c r="E446" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H446" s="6"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -10555,8 +11042,9 @@
       <c r="E447" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H447" s="6"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -10572,8 +11060,9 @@
       <c r="E448" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H448" s="6"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -10589,8 +11078,9 @@
       <c r="E449" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H449" s="6"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -10606,8 +11096,9 @@
       <c r="E450" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H450" s="6"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -10623,8 +11114,9 @@
       <c r="E451" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H451" s="6"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -10640,8 +11132,9 @@
       <c r="E452" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H452" s="6"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -10660,8 +11153,9 @@
       <c r="G453">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H453" s="6"/>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -10680,8 +11174,9 @@
       <c r="G454">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H454" s="6"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -10700,8 +11195,9 @@
       <c r="G455">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H455" s="6"/>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -10720,8 +11216,9 @@
       <c r="G456">
         <v>17</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H456" s="6"/>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -10740,8 +11237,9 @@
       <c r="G457">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H457" s="6"/>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -10757,8 +11255,9 @@
       <c r="E458" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H458" s="6"/>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -10774,8 +11273,9 @@
       <c r="E459" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H459" s="6"/>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -10791,8 +11291,9 @@
       <c r="E460" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H460" s="6"/>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -10808,8 +11309,9 @@
       <c r="E461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H461" s="6"/>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -10825,8 +11327,9 @@
       <c r="E462" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H462" s="6"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -10842,8 +11345,9 @@
       <c r="E463" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H463" s="6"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -10859,8 +11363,9 @@
       <c r="E464" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H464" s="6"/>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -10876,8 +11381,9 @@
       <c r="E465" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H465" s="6"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -10893,8 +11399,9 @@
       <c r="E466" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H466" s="6"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -10910,8 +11417,9 @@
       <c r="E467" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H467" s="6"/>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -10930,8 +11438,9 @@
       <c r="G468">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H468" s="6"/>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -10950,8 +11459,9 @@
       <c r="G469">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H469" s="6"/>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -10970,8 +11480,9 @@
       <c r="G470">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H470" s="6"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -10990,8 +11501,9 @@
       <c r="G471">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H471" s="6"/>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -11010,8 +11522,9 @@
       <c r="G472">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H472" s="6"/>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -11027,8 +11540,9 @@
       <c r="E473" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H473" s="6"/>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -11044,8 +11558,9 @@
       <c r="E474" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H474" s="6"/>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -11061,8 +11576,9 @@
       <c r="E475" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H475" s="6"/>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -11078,8 +11594,9 @@
       <c r="E476" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H476" s="6"/>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -11095,8 +11612,9 @@
       <c r="E477" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H477" s="6"/>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -11112,8 +11630,9 @@
       <c r="E478" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H478" s="6"/>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -11129,8 +11648,9 @@
       <c r="E479" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H479" s="6"/>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -11146,8 +11666,9 @@
       <c r="E480" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H480" s="6"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -11163,8 +11684,9 @@
       <c r="E481" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H481" s="6"/>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -11180,8 +11702,9 @@
       <c r="E482" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H482" s="6"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -11200,8 +11723,9 @@
       <c r="G483">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H483" s="6"/>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -11220,8 +11744,9 @@
       <c r="G484">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H484" s="6"/>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -11240,8 +11765,9 @@
       <c r="G485">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H485" s="6"/>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -11260,8 +11786,9 @@
       <c r="G486">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H486" s="6"/>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -11280,8 +11807,9 @@
       <c r="G487">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H487" s="6"/>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -11297,8 +11825,9 @@
       <c r="E488" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H488" s="6"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -11314,8 +11843,9 @@
       <c r="E489" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H489" s="6"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -11331,8 +11861,9 @@
       <c r="E490" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H490" s="6"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -11348,8 +11879,9 @@
       <c r="E491" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H491" s="6"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -11365,8 +11897,9 @@
       <c r="E492" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H492" s="6"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -11382,8 +11915,9 @@
       <c r="E493" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H493" s="6"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -11399,8 +11933,9 @@
       <c r="E494" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H494" s="6"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -11416,8 +11951,9 @@
       <c r="E495" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H495" s="6"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -11433,8 +11969,9 @@
       <c r="E496" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H496" s="6"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -11450,8 +11987,9 @@
       <c r="E497" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H497" s="6"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -11470,8 +12008,9 @@
       <c r="G498">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H498" s="6"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -11490,8 +12029,9 @@
       <c r="G499">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H499" s="6"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -11510,8 +12050,9 @@
       <c r="G500">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H500" s="6"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -11530,8 +12071,9 @@
       <c r="G501">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H501" s="6"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -11550,8 +12092,9 @@
       <c r="G502">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H502" s="6"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -11567,8 +12110,9 @@
       <c r="E503" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H503" s="6"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -11584,8 +12128,9 @@
       <c r="E504" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H504" s="6"/>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -11601,8 +12146,9 @@
       <c r="E505" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H505" s="6"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -11618,8 +12164,9 @@
       <c r="E506" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H506" s="6"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -11635,8 +12182,9 @@
       <c r="E507" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H507" s="6"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -11652,8 +12200,9 @@
       <c r="E508" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H508" s="6"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -11669,8 +12218,9 @@
       <c r="E509" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H509" s="6"/>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -11686,8 +12236,9 @@
       <c r="E510" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H510" s="6"/>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -11703,8 +12254,9 @@
       <c r="E511" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H511" s="6"/>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -11720,8 +12272,9 @@
       <c r="E512" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H512" s="6"/>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -11740,8 +12293,9 @@
       <c r="G513">
         <v>26</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H513" s="6"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -11760,8 +12314,9 @@
       <c r="G514">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H514" s="6"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -11780,8 +12335,9 @@
       <c r="G515">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H515" s="6"/>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -11800,8 +12356,9 @@
       <c r="G516">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H516" s="6"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -11820,8 +12377,9 @@
       <c r="G517">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H517" s="6"/>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -11837,8 +12395,9 @@
       <c r="E518" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H518" s="6"/>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -11854,8 +12413,9 @@
       <c r="E519" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H519" s="6"/>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -11871,8 +12431,9 @@
       <c r="E520" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H520" s="6"/>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -11888,8 +12449,9 @@
       <c r="E521" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H521" s="6"/>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -11905,8 +12467,9 @@
       <c r="E522" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H522" s="6"/>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -11922,8 +12485,9 @@
       <c r="E523" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H523" s="6"/>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -11939,8 +12503,9 @@
       <c r="E524" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H524" s="6"/>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -11956,8 +12521,9 @@
       <c r="E525" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H525" s="6"/>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -11973,8 +12539,9 @@
       <c r="E526" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H526" s="6"/>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -11990,8 +12557,9 @@
       <c r="E527" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H527" s="6"/>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -12007,8 +12575,12 @@
       <c r="E528" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F528" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H528" s="6"/>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>553</v>
       </c>
@@ -12024,8 +12596,13 @@
       <c r="E529" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F529" s="4"/>
+      <c r="G529">
+        <v>20.9</v>
+      </c>
+      <c r="H529" s="6"/>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>554</v>
       </c>
@@ -12041,8 +12618,12 @@
       <c r="E530" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F530" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H530" s="6"/>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>555</v>
       </c>
@@ -12058,8 +12639,13 @@
       <c r="E531" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F531" s="4"/>
+      <c r="G531">
+        <v>15.8</v>
+      </c>
+      <c r="H531" s="6"/>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -12075,8 +12661,13 @@
       <c r="E532" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F532" s="3"/>
+      <c r="G532">
+        <v>20.2</v>
+      </c>
+      <c r="H532" s="6"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -12092,8 +12683,13 @@
       <c r="E533" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F533" s="4"/>
+      <c r="G533">
+        <v>7.1</v>
+      </c>
+      <c r="H533" s="6"/>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -12109,8 +12705,13 @@
       <c r="E534" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F534" s="3"/>
+      <c r="G534">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H534" s="6"/>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -12126,8 +12727,13 @@
       <c r="E535" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F535" s="4"/>
+      <c r="G535">
+        <v>8.1</v>
+      </c>
+      <c r="H535" s="6"/>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -12143,8 +12749,13 @@
       <c r="E536" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F536" s="3"/>
+      <c r="G536">
+        <v>10.9</v>
+      </c>
+      <c r="H536" s="6"/>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -12160,8 +12771,13 @@
       <c r="E537" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F537" s="4"/>
+      <c r="G537">
+        <v>9.1</v>
+      </c>
+      <c r="H537" s="6"/>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -12177,8 +12793,12 @@
       <c r="E538" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F538" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H538" s="6"/>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -12194,8 +12814,13 @@
       <c r="E539" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F539" s="4"/>
+      <c r="G539">
+        <v>13.8</v>
+      </c>
+      <c r="H539" s="6"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -12211,8 +12836,12 @@
       <c r="E540" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F540" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H540" s="6"/>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -12228,8 +12857,13 @@
       <c r="E541" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F541" s="4"/>
+      <c r="G541">
+        <v>8.9</v>
+      </c>
+      <c r="H541" s="6"/>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -12245,8 +12879,13 @@
       <c r="E542" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F542" s="3"/>
+      <c r="G542">
+        <v>21.5</v>
+      </c>
+      <c r="H542" s="6"/>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -12262,8 +12901,12 @@
       <c r="E543" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F543" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H543" s="6"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -12279,8 +12922,13 @@
       <c r="E544" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F544" s="3"/>
+      <c r="G544">
+        <v>12.6</v>
+      </c>
+      <c r="H544" s="6"/>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -12296,8 +12944,13 @@
       <c r="E545" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F545" s="4"/>
+      <c r="G545">
+        <v>12</v>
+      </c>
+      <c r="H545" s="6"/>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -12313,8 +12966,13 @@
       <c r="E546" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F546" s="3"/>
+      <c r="G546">
+        <v>13.7</v>
+      </c>
+      <c r="H546" s="6"/>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -12330,8 +12988,13 @@
       <c r="E547" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F547" s="4"/>
+      <c r="G547">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H547" s="6"/>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -12347,8 +13010,13 @@
       <c r="E548" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F548" s="3"/>
+      <c r="G548" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="H548" s="6"/>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -12364,8 +13032,13 @@
       <c r="E549" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F549" s="4"/>
+      <c r="G549" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="H549" s="6"/>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -12381,8 +13054,13 @@
       <c r="E550" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F550" s="3"/>
+      <c r="G550" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="H550" s="6"/>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -12398,8 +13076,13 @@
       <c r="E551" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F551" s="4"/>
+      <c r="G551" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="H551" s="6"/>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -12415,8 +13098,12 @@
       <c r="E552" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F552" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H552" s="6"/>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -12432,8 +13119,13 @@
       <c r="E553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F553" s="4"/>
+      <c r="G553">
+        <v>19.8</v>
+      </c>
+      <c r="H553" s="6"/>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -12449,8 +13141,13 @@
       <c r="E554" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F554" s="3"/>
+      <c r="G554">
+        <v>18.7</v>
+      </c>
+      <c r="H554" s="6"/>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -12466,8 +13163,13 @@
       <c r="E555" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F555" s="4"/>
+      <c r="G555">
+        <v>18.8</v>
+      </c>
+      <c r="H555" s="6"/>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -12483,8 +13185,13 @@
       <c r="E556" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F556" s="3"/>
+      <c r="G556">
+        <v>15.9</v>
+      </c>
+      <c r="H556" s="6"/>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -12500,8 +13207,12 @@
       <c r="E557" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F557" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H557" s="6"/>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -12517,8 +13228,13 @@
       <c r="E558" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F558" s="3"/>
+      <c r="G558">
+        <v>12</v>
+      </c>
+      <c r="H558" s="6"/>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -12534,8 +13250,13 @@
       <c r="E559" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F559" s="4"/>
+      <c r="G559">
+        <v>10.9</v>
+      </c>
+      <c r="H559" s="6"/>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -12551,8 +13272,12 @@
       <c r="E560" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F560" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H560" s="6"/>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -12568,8 +13293,12 @@
       <c r="E561" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F561" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H561" s="6"/>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -12585,8 +13314,12 @@
       <c r="E562" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F562" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H562" s="6"/>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -12602,8 +13335,13 @@
       <c r="E563" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F563" s="4"/>
+      <c r="G563">
+        <v>8.5</v>
+      </c>
+      <c r="H563" s="6"/>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -12619,8 +13357,12 @@
       <c r="E564" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F564" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H564" s="6"/>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -12636,8 +13378,13 @@
       <c r="E565" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F565" s="4"/>
+      <c r="G565">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H565" s="6"/>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -12653,8 +13400,13 @@
       <c r="E566" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F566" s="3"/>
+      <c r="G566">
+        <v>9.1</v>
+      </c>
+      <c r="H566" s="6"/>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -12670,8 +13422,13 @@
       <c r="E567" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F567" s="4"/>
+      <c r="G567">
+        <v>11.9</v>
+      </c>
+      <c r="H567" s="6"/>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -12687,8 +13444,13 @@
       <c r="E568" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F568" s="3"/>
+      <c r="G568">
+        <v>18.7</v>
+      </c>
+      <c r="H568" s="6"/>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -12704,8 +13466,12 @@
       <c r="E569" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F569" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H569" s="6"/>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -12721,8 +13487,13 @@
       <c r="E570" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F570" s="3"/>
+      <c r="G570">
+        <v>21</v>
+      </c>
+      <c r="H570" s="6"/>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -12738,8 +13509,13 @@
       <c r="E571" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F571" s="4"/>
+      <c r="G571">
+        <v>10.8</v>
+      </c>
+      <c r="H571" s="6"/>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -12755,8 +13531,13 @@
       <c r="E572" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F572" s="3"/>
+      <c r="G572">
+        <v>15.4</v>
+      </c>
+      <c r="H572" s="6"/>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -12772,8 +13553,13 @@
       <c r="E573" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F573" s="4"/>
+      <c r="G573">
+        <v>10</v>
+      </c>
+      <c r="H573" s="6"/>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -12789,8 +13575,12 @@
       <c r="E574" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F574" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H574" s="6"/>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -12806,8 +13596,12 @@
       <c r="E575" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F575" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H575" s="6"/>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -12823,8 +13617,12 @@
       <c r="E576" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F576" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H576" s="6"/>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -12840,8 +13638,13 @@
       <c r="E577" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F577" s="4"/>
+      <c r="G577">
+        <v>8.6</v>
+      </c>
+      <c r="H577" s="6"/>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -12857,8 +13660,13 @@
       <c r="E578" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F578" s="3"/>
+      <c r="G578">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H578" s="6"/>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -12874,8 +13682,13 @@
       <c r="E579" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F579" s="4"/>
+      <c r="G579">
+        <v>10.7</v>
+      </c>
+      <c r="H579" s="6"/>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -12891,8 +13704,13 @@
       <c r="E580" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F580" s="3"/>
+      <c r="G580">
+        <v>10.1</v>
+      </c>
+      <c r="H580" s="6"/>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -12908,8 +13726,13 @@
       <c r="E581" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F581" s="4"/>
+      <c r="G581">
+        <v>7.7</v>
+      </c>
+      <c r="H581" s="6"/>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -12925,8 +13748,13 @@
       <c r="E582" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F582" s="3"/>
+      <c r="G582">
+        <v>12.1</v>
+      </c>
+      <c r="H582" s="6"/>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -12942,8 +13770,13 @@
       <c r="E583" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F583" s="4"/>
+      <c r="G583">
+        <v>23.4</v>
+      </c>
+      <c r="H583" s="6"/>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -12959,8 +13792,13 @@
       <c r="E584" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F584" s="3"/>
+      <c r="G584">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H584" s="6"/>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -12976,8 +13814,13 @@
       <c r="E585" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F585" s="4"/>
+      <c r="G585">
+        <v>19</v>
+      </c>
+      <c r="H585" s="6"/>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -12993,8 +13836,13 @@
       <c r="E586" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F586" s="3"/>
+      <c r="G586">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H586" s="6"/>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -13010,8 +13858,12 @@
       <c r="E587" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F587" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H587" s="6"/>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -13027,8 +13879,13 @@
       <c r="E588" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F588" s="3"/>
+      <c r="G588">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H588" s="6"/>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -13044,8 +13901,12 @@
       <c r="E589" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F589" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H589" s="6"/>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -13061,8 +13922,12 @@
       <c r="E590" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F590" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H590" s="6"/>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -13078,8 +13943,12 @@
       <c r="E591" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F591" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H591" s="6"/>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -13095,8 +13964,13 @@
       <c r="E592" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F592" s="3"/>
+      <c r="G592">
+        <v>9.1</v>
+      </c>
+      <c r="H592" s="6"/>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -13112,8 +13986,13 @@
       <c r="E593" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F593" s="4"/>
+      <c r="G593">
+        <v>7.8</v>
+      </c>
+      <c r="H593" s="6"/>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -13129,8 +14008,13 @@
       <c r="E594" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F594" s="3"/>
+      <c r="G594">
+        <v>5.9</v>
+      </c>
+      <c r="H594" s="6"/>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -13146,8 +14030,12 @@
       <c r="E595" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F595" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H595" s="6"/>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -13163,8 +14051,13 @@
       <c r="E596" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F596" s="3"/>
+      <c r="G596">
+        <v>7.5</v>
+      </c>
+      <c r="H596" s="6"/>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -13180,8 +14073,12 @@
       <c r="E597" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F597" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H597" s="6"/>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -13197,8 +14094,12 @@
       <c r="E598" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F598" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H598" s="6"/>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -13214,8 +14115,13 @@
       <c r="E599" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F599" s="4"/>
+      <c r="G599">
+        <v>20.9</v>
+      </c>
+      <c r="H599" s="6"/>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -13231,8 +14137,13 @@
       <c r="E600" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F600" s="3"/>
+      <c r="G600">
+        <v>19</v>
+      </c>
+      <c r="H600" s="6"/>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -13248,8 +14159,13 @@
       <c r="E601" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F601" s="4"/>
+      <c r="G601">
+        <v>24.7</v>
+      </c>
+      <c r="H601" s="6"/>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -13265,8 +14181,13 @@
       <c r="E602" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F602" s="3"/>
+      <c r="G602">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H602" s="6"/>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -13282,8 +14203,13 @@
       <c r="E603" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F603" s="4"/>
+      <c r="G603">
+        <v>9</v>
+      </c>
+      <c r="H603" s="6"/>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -13299,8 +14225,13 @@
       <c r="E604" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F604" s="3"/>
+      <c r="G604">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H604" s="6"/>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -13316,8 +14247,13 @@
       <c r="E605" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F605" s="4"/>
+      <c r="G605">
+        <v>5.7</v>
+      </c>
+      <c r="H605" s="6"/>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -13333,8 +14269,12 @@
       <c r="E606" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F606" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H606" s="6"/>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -13350,8 +14290,13 @@
       <c r="E607" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F607" s="4"/>
+      <c r="G607">
+        <v>11</v>
+      </c>
+      <c r="H607" s="6"/>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -13367,8 +14312,13 @@
       <c r="E608" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F608" s="3"/>
+      <c r="G608">
+        <v>13.9</v>
+      </c>
+      <c r="H608" s="6"/>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -13384,8 +14334,13 @@
       <c r="E609" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F609" s="4"/>
+      <c r="G609">
+        <v>22.3</v>
+      </c>
+      <c r="H609" s="6"/>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -13401,8 +14356,13 @@
       <c r="E610" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F610" s="3"/>
+      <c r="G610">
+        <v>14.5</v>
+      </c>
+      <c r="H610" s="6"/>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -13418,8 +14378,13 @@
       <c r="E611" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F611" s="4"/>
+      <c r="G611">
+        <v>21.8</v>
+      </c>
+      <c r="H611" s="6"/>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -13435,8 +14400,13 @@
       <c r="E612" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F612" s="3"/>
+      <c r="G612">
+        <v>12.5</v>
+      </c>
+      <c r="H612" s="6"/>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -13452,8 +14422,13 @@
       <c r="E613" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F613" s="4"/>
+      <c r="G613">
+        <v>24.5</v>
+      </c>
+      <c r="H613" s="6"/>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -13469,8 +14444,13 @@
       <c r="E614" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F614" s="3"/>
+      <c r="G614">
+        <v>19.3</v>
+      </c>
+      <c r="H614" s="6"/>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -13486,8 +14466,13 @@
       <c r="E615" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F615" s="4"/>
+      <c r="G615">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H615" s="6"/>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -13503,8 +14488,13 @@
       <c r="E616" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F616" s="3"/>
+      <c r="G616">
+        <v>24</v>
+      </c>
+      <c r="H616" s="6"/>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -13520,8 +14510,14 @@
       <c r="E617" t="s">
         <v>552</v>
       </c>
+      <c r="F617" s="5"/>
+      <c r="G617">
+        <v>20.7</v>
+      </c>
+      <c r="H617" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
